--- a/Versão2/Urba/Ontologia_Urba_Projeto.xlsx
+++ b/Versão2/Urba/Ontologia_Urba_Projeto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\Urba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A858354-02A0-40CC-8E65-176B9A9CD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739F402-33DA-41E0-817F-6F5D6E34DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -1804,7 +1804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2102,17 +2102,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A9" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>437</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>438</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>441</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>443</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>446</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>447</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>448</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>449</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2250,16 +2250,16 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>450</v>
       </c>
       <c r="B18" s="6">
         <f ca="1">NOW()</f>
-        <v>45515.530031712966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45523.38671215278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>451</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>452</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>107</v>
       </c>
@@ -2292,38 +2292,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7DDAD-871C-4A33-AA34-2A9D5C2ED883}">
   <dimension ref="A1:W405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H257" sqref="H257"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>460</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>2</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>3</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>4</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>5</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>6</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>7</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>8</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>9</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>10</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>11</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>12</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>13</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>14</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>15</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>16</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>17</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>18</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>19</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>20</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>21</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>22</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>23</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>24</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>25</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>26</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>27</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>28</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>29</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>30</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>31</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>32</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>33</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>34</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>35</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>36</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>37</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>38</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>39</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>40</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>41</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>42</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>43</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>44</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>45</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>46</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>47</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>48</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>49</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>50</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>51</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>52</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>53</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>54</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <v>55</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>56</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>57</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>58</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>59</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>60</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>61</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>62</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
         <v>63</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>64</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>65</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>66</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>67</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>68</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>69</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>70</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>71</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>72</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>73</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>74</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>75</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>76</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>77</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>78</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>79</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>80</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>81</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>82</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>83</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>84</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>85</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>86</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>87</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>88</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>89</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>90</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>91</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>92</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>93</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>94</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>95</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>96</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>97</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>98</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>99</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>100</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>101</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>102</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>103</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>104</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>105</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>106</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>107</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>108</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>109</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>110</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>111</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>112</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>113</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>114</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>115</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>116</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>117</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <v>118</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>119</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>120</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
         <v>121</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>122</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>123</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>124</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>125</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>126</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>127</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>128</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>129</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>130</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>131</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>132</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>133</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>134</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>135</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>136</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>137</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>138</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>139</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
         <v>140</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>141</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>142</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>143</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>144</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>145</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>146</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>147</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>148</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>149</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <v>150</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <v>151</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>152</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <v>153</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <v>154</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <v>155</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <v>156</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <v>157</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
         <v>158</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <v>159</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <v>160</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <v>161</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
         <v>162</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <v>163</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <v>164</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <v>165</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <v>166</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>167</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>168</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>169</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>170</v>
       </c>
@@ -14552,7 +14552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>171</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <v>172</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <v>173</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <v>174</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <v>175</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <v>176</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <v>177</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <v>178</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <v>179</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <v>180</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <v>181</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <v>182</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <v>183</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
         <v>184</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="21">
         <v>185</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="21">
         <v>186</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="21">
         <v>187</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="21">
         <v>188</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="21">
         <v>189</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="21">
         <v>190</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="21">
         <v>191</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21">
         <v>192</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21">
         <v>193</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21">
         <v>194</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21">
         <v>195</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="21">
         <v>196</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="21">
         <v>197</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="21">
         <v>198</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="21">
         <v>199</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="21">
         <v>200</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="21">
         <v>201</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="21">
         <v>202</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21">
         <v>203</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="21">
         <v>204</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="21">
         <v>205</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="21">
         <v>206</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="21">
         <v>207</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="21">
         <v>208</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="21">
         <v>209</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="21">
         <v>210</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="21">
         <v>211</v>
       </c>
@@ -17504,7 +17504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="21">
         <v>212</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="21">
         <v>213</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="21">
         <v>214</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="21">
         <v>215</v>
       </c>
@@ -17792,7 +17792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="21">
         <v>216</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="21">
         <v>217</v>
       </c>
@@ -17936,7 +17936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="21">
         <v>218</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="21">
         <v>219</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="21">
         <v>220</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="21">
         <v>221</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="21">
         <v>222</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="21">
         <v>223</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="21">
         <v>224</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="21">
         <v>225</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="21">
         <v>226</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="21">
         <v>227</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="21">
         <v>228</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="21">
         <v>229</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="21">
         <v>230</v>
       </c>
@@ -18872,7 +18872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="21">
         <v>231</v>
       </c>
@@ -18944,7 +18944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="21">
         <v>232</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="21">
         <v>233</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="21">
         <v>234</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="21">
         <v>235</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="21">
         <v>236</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21">
         <v>237</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="21">
         <v>238</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="21">
         <v>239</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="21">
         <v>240</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="21">
         <v>241</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="21">
         <v>242</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="21">
         <v>243</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="21">
         <v>244</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="21">
         <v>245</v>
       </c>
@@ -19952,7 +19952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="21">
         <v>246</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="21">
         <v>247</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="21">
         <v>248</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21">
         <v>249</v>
       </c>
@@ -20240,7 +20240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="21">
         <v>250</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="21">
         <v>251</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="21">
         <v>252</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="21">
         <v>253</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="21">
         <v>254</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="21">
         <v>255</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="21">
         <v>256</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="21">
         <v>257</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="21">
         <v>258</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="21">
         <v>259</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="21">
         <v>260</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="21">
         <v>261</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="21">
         <v>262</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="21">
         <v>263</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="21">
         <v>264</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="21">
         <v>265</v>
       </c>
@@ -21392,7 +21392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="21">
         <v>266</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="21">
         <v>267</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="21">
         <v>268</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="21">
         <v>269</v>
       </c>
@@ -21680,7 +21680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="21">
         <v>270</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="21">
         <v>271</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="21">
         <v>272</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="21">
         <v>273</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21">
         <v>274</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="21">
         <v>275</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="21">
         <v>276</v>
       </c>
@@ -22184,7 +22184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="21">
         <v>277</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="21">
         <v>278</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="21">
         <v>279</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="21">
         <v>280</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="21">
         <v>281</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="21">
         <v>282</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="21">
         <v>283</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="21">
         <v>284</v>
       </c>
@@ -22760,7 +22760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="21">
         <v>285</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="21">
         <v>286</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="21">
         <v>287</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="21">
         <v>288</v>
       </c>
@@ -23048,7 +23048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="21">
         <v>289</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="21">
         <v>290</v>
       </c>
@@ -23192,7 +23192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="21">
         <v>291</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="21">
         <v>292</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="21">
         <v>293</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="21">
         <v>294</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="21">
         <v>295</v>
       </c>
@@ -23552,7 +23552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="21">
         <v>296</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="21">
         <v>297</v>
       </c>
@@ -23696,7 +23696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="21">
         <v>298</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="21">
         <v>299</v>
       </c>
@@ -23840,7 +23840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="21">
         <v>300</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="21">
         <v>301</v>
       </c>
@@ -23984,7 +23984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="21">
         <v>302</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="21">
         <v>303</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="21">
         <v>304</v>
       </c>
@@ -24200,7 +24200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="21">
         <v>305</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="21">
         <v>306</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="21">
         <v>307</v>
       </c>
@@ -24416,7 +24416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="21">
         <v>308</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="21">
         <v>309</v>
       </c>
@@ -24560,7 +24560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="21">
         <v>310</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="21">
         <v>311</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="21">
         <v>312</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="21">
         <v>313</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="21">
         <v>314</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="21">
         <v>315</v>
       </c>
@@ -24992,7 +24992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="21">
         <v>316</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="21">
         <v>317</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="21">
         <v>318</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="21">
         <v>319</v>
       </c>
@@ -25280,7 +25280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="21">
         <v>320</v>
       </c>
@@ -25352,7 +25352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="21">
         <v>321</v>
       </c>
@@ -25424,7 +25424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="21">
         <v>322</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="21">
         <v>323</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="21">
         <v>324</v>
       </c>
@@ -25640,7 +25640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="21">
         <v>325</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="21">
         <v>326</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="21">
         <v>327</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="21">
         <v>328</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="21">
         <v>329</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="21">
         <v>330</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="21">
         <v>331</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="21">
         <v>332</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="21">
         <v>333</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="21">
         <v>334</v>
       </c>
@@ -26360,7 +26360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="21">
         <v>335</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="21">
         <v>336</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="21">
         <v>337</v>
       </c>
@@ -26576,7 +26576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="21">
         <v>338</v>
       </c>
@@ -26648,7 +26648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="21">
         <v>339</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="21">
         <v>340</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="21">
         <v>341</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="21">
         <v>342</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="21">
         <v>343</v>
       </c>
@@ -27008,7 +27008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="21">
         <v>344</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="21">
         <v>345</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="21">
         <v>346</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="21">
         <v>347</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="21">
         <v>348</v>
       </c>
@@ -27368,7 +27368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="21">
         <v>349</v>
       </c>
@@ -27440,7 +27440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="21">
         <v>350</v>
       </c>
@@ -27512,7 +27512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="21">
         <v>351</v>
       </c>
@@ -27584,7 +27584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="21">
         <v>352</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="21">
         <v>353</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="21">
         <v>354</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="21">
         <v>355</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="21">
         <v>356</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="21">
         <v>357</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="21">
         <v>358</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="21">
         <v>359</v>
       </c>
@@ -28160,7 +28160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="21">
         <v>360</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="21">
         <v>361</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="21">
         <v>362</v>
       </c>
@@ -28376,7 +28376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="21">
         <v>363</v>
       </c>
@@ -28448,7 +28448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="21">
         <v>364</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="21">
         <v>365</v>
       </c>
@@ -28592,7 +28592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="21">
         <v>366</v>
       </c>
@@ -28664,7 +28664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="21">
         <v>367</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="21">
         <v>368</v>
       </c>
@@ -28808,7 +28808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="21">
         <v>369</v>
       </c>
@@ -28880,7 +28880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="21">
         <v>370</v>
       </c>
@@ -28952,7 +28952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="21">
         <v>371</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="21">
         <v>372</v>
       </c>
@@ -29096,7 +29096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="21">
         <v>373</v>
       </c>
@@ -29168,7 +29168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="21">
         <v>374</v>
       </c>
@@ -29240,7 +29240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="21">
         <v>375</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="21">
         <v>376</v>
       </c>
@@ -29384,7 +29384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="21">
         <v>377</v>
       </c>
@@ -29456,7 +29456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="21">
         <v>378</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="21">
         <v>379</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="21">
         <v>380</v>
       </c>
@@ -29672,7 +29672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="21">
         <v>381</v>
       </c>
@@ -29744,7 +29744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="21">
         <v>382</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="21">
         <v>383</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="21">
         <v>384</v>
       </c>
@@ -29960,7 +29960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="21">
         <v>385</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="21">
         <v>386</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="21">
         <v>387</v>
       </c>
@@ -30176,7 +30176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="21">
         <v>388</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="21">
         <v>389</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="21">
         <v>390</v>
       </c>
@@ -30392,7 +30392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="21">
         <v>391</v>
       </c>
@@ -30464,7 +30464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="21">
         <v>392</v>
       </c>
@@ -30536,7 +30536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="21">
         <v>393</v>
       </c>
@@ -30608,7 +30608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="21">
         <v>394</v>
       </c>
@@ -30680,7 +30680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="21">
         <v>395</v>
       </c>
@@ -30752,7 +30752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="21">
         <v>396</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="21">
         <v>397</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="21">
         <v>398</v>
       </c>
@@ -30968,7 +30968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="21">
         <v>399</v>
       </c>
@@ -31040,7 +31040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="21">
         <v>400</v>
       </c>
@@ -31112,7 +31112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="21">
         <v>401</v>
       </c>
@@ -31184,7 +31184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="21">
         <v>402</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="21">
         <v>403</v>
       </c>
@@ -31328,7 +31328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="21">
         <v>404</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="21">
         <v>405</v>
       </c>
@@ -31501,13 +31501,13 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G405 I2:I241 K2:K405 M2:O405">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+  <conditionalFormatting sqref="H1:H405">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H405">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+  <conditionalFormatting sqref="I2:I241 G2:G405 K2:K405 M2:O405">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
